--- a/src/data/base_excel_file.xlsx
+++ b/src/data/base_excel_file.xlsx
@@ -4,10 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="66520" tabRatio="500"/>
+    <workbookView xWindow="11700" yWindow="22680" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
+    <sheet name="teams" sheetId="6" r:id="rId1"/>
+    <sheet name="infrastructure" sheetId="1" r:id="rId2"/>
+    <sheet name="bi" sheetId="2" r:id="rId3"/>
+    <sheet name="sm" sheetId="3" r:id="rId4"/>
+    <sheet name="integration" sheetId="4" r:id="rId5"/>
+    <sheet name="Arkusz4" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="37">
   <si>
     <t>ID</t>
   </si>
@@ -30,9 +35,6 @@
     <t>F223: Complete Message Provenance - Extend Message Catalogue to Include External Packages in DPF</t>
   </si>
   <si>
-    <t>Roy Grandfield</t>
-  </si>
-  <si>
     <t>Closed</t>
   </si>
   <si>
@@ -42,21 +44,12 @@
     <t>Story Points</t>
   </si>
   <si>
-    <t>RR Owner</t>
-  </si>
-  <si>
     <t>Release Pipeline Support - IP10.2 - Apes</t>
   </si>
   <si>
     <t>Apes</t>
   </si>
   <si>
-    <t>CSME MVP</t>
-  </si>
-  <si>
-    <t>Faisal</t>
-  </si>
-  <si>
     <t>Active</t>
   </si>
   <si>
@@ -72,7 +65,76 @@
     <t>Blocked</t>
   </si>
   <si>
-    <t>Rekease</t>
+    <t>Milstone</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>percent</t>
+  </si>
+  <si>
+    <t>velocity</t>
+  </si>
+  <si>
+    <t>last update</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>infrastructure</t>
+  </si>
+  <si>
+    <t>bi</t>
+  </si>
+  <si>
+    <t>sm</t>
+  </si>
+  <si>
+    <t>integration</t>
+  </si>
+  <si>
+    <t>infra random 1</t>
+  </si>
+  <si>
+    <t>infra random 2</t>
+  </si>
+  <si>
+    <t>infra random 3</t>
+  </si>
+  <si>
+    <t>bi 1</t>
+  </si>
+  <si>
+    <t>bi 2</t>
+  </si>
+  <si>
+    <t>bi 3</t>
+  </si>
+  <si>
+    <t>sm 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sm2 </t>
+  </si>
+  <si>
+    <t>sm3</t>
+  </si>
+  <si>
+    <t>int3</t>
+  </si>
+  <si>
+    <t>int5</t>
+  </si>
+  <si>
+    <t>ing6</t>
   </si>
 </sst>
 </file>
@@ -131,7 +193,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="19">
+  <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -151,15 +213,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="19">
+  <cellStyles count="27">
     <cellStyle name="Hiperłącze" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hiperłącze" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hiperłącze" xfId="5" builtinId="8" hidden="1"/>
@@ -169,6 +241,10 @@
     <cellStyle name="Hiperłącze" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hiperłącze" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hiperłącze" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperłącze" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperłącze" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperłącze" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperłącze" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Standardowy" xfId="0" builtinId="0"/>
     <cellStyle name="Użyte hiperłącze" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Użyte hiperłącze" xfId="4" builtinId="9" hidden="1"/>
@@ -179,6 +255,10 @@
     <cellStyle name="Użyte hiperłącze" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Użyte hiperłącze" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Użyte hiperłącze" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Użyte hiperłącze" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Użyte hiperłącze" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Użyte hiperłącze" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Użyte hiperłącze" xfId="26" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -507,110 +587,70 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <sheetPr enableFormatConditionsCalculation="0">
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="84.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="2" customFormat="1">
-      <c r="A2" s="1">
-        <v>135457</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>137195</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>132639</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4">
-        <v>20</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2">
+        <v>60</v>
+      </c>
+      <c r="C2" s="4">
+        <v>43750</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3">
+        <v>50</v>
+      </c>
+      <c r="C3" s="4">
+        <v>43750</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4">
+        <v>50</v>
+      </c>
+      <c r="C4" s="4">
+        <v>43750</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5">
+        <v>70</v>
+      </c>
+      <c r="C5" s="4">
+        <v>43750</v>
       </c>
     </row>
   </sheetData>
@@ -622,4 +662,533 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="84.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="2" customFormat="1">
+      <c r="A2" s="1">
+        <v>135457</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>137195</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>132639</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="84.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="2" customFormat="1">
+      <c r="A2" s="1">
+        <v>135457</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>137195</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>132639</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="84.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="2" customFormat="1">
+      <c r="A2" s="1">
+        <v>135457</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>137195</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>132639</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="84.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="2" customFormat="1">
+      <c r="A2" s="1">
+        <v>135457</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>137195</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>132639</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="84.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="2" customFormat="1">
+      <c r="A2" s="1">
+        <v>135457</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>137195</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>132639</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/src/data/base_excel_file.xlsx
+++ b/src/data/base_excel_file.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="11700" yWindow="22680" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="11700" yWindow="22680" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="teams" sheetId="6" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="36">
   <si>
     <t>ID</t>
   </si>
@@ -75,9 +75,6 @@
   </si>
   <si>
     <t>C</t>
-  </si>
-  <si>
-    <t>percent</t>
   </si>
   <si>
     <t>velocity</t>
@@ -600,18 +597,18 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
         <v>18</v>
-      </c>
-      <c r="C1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2">
         <v>60</v>
@@ -622,7 +619,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3">
         <v>50</v>
@@ -633,7 +630,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4">
         <v>50</v>
@@ -644,7 +641,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5">
         <v>70</v>
@@ -668,7 +665,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -704,7 +701,7 @@
         <v>135457</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>10</v>
@@ -724,7 +721,7 @@
         <v>137195</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -744,7 +741,7 @@
         <v>132639</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -810,7 +807,7 @@
         <v>135457</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>10</v>
@@ -830,7 +827,7 @@
         <v>137195</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -850,7 +847,7 @@
         <v>132639</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -915,7 +912,7 @@
         <v>135457</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>10</v>
@@ -935,7 +932,7 @@
         <v>137195</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -955,7 +952,7 @@
         <v>132639</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -1020,7 +1017,7 @@
         <v>135457</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>10</v>
@@ -1040,7 +1037,7 @@
         <v>137195</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -1060,7 +1057,7 @@
         <v>132639</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -1087,9 +1084,9 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -1100,7 +1097,7 @@
     <col min="3" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1119,11 +1116,8 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="2" customFormat="1">
+    </row>
+    <row r="2" spans="1:6" s="2" customFormat="1">
       <c r="A2" s="1">
         <v>135457</v>
       </c>
@@ -1143,7 +1137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>137195</v>
       </c>
@@ -1163,7 +1157,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>132639</v>
       </c>
